--- a/trend_results/Rivers/MangaehuehuatusRangatauaSTP_5913372711.xlsx
+++ b/trend_results/Rivers/MangaehuehuatusRangatauaSTP_5913372711.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.958769250206601</v>
+        <v>0.041230749793399</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.999999343101182</v>
+        <v>6.56898818007789e-07</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.5312475513668951</v>
+        <v>0.468752448633105</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999947880666443</v>
+        <v>5.2119333556977e-05</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2879,6 +2879,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.112149027357968</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0144927536231884</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.623188405797101</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0361236263736263</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0802747252747253</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.009078873578984599</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-1.44494505494505</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.33972717100139e-05</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.797687861271676</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.0566795983569149</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0813019094559376</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.0386029914429026</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.527743001461033</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.633222942137401</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.227272727272727</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0003171947964543</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0001999178981937</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.224835525816641</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0397727272727273</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.460227272727273</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>25</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.166609701789976</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.249111677798186</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.25044262072733</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.666438807159904</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.569010430861678</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.964071856287425</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0538922155688623</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.714794446919315</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.541935483870968</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0838709677419355</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>6.86496298107367e-05</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0127388535031847</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8216560509554141</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0064158312373575</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0037546200397626</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0089611483164104</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4.86047821011933</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.061786118253407</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.580459770114943</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.0126509153884215</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0260892857142859</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.171421617729288</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Very unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.09326438921435e-07</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.585227272727273</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.1325</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0068592320064941</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0047866210636693</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.008851177544587399</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.17677887282577</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0002498735138345</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0170454545454545</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.335227272727273</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0054746443586398</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.002959955913044</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0080274725274725</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.04146908813326</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.938335781998732</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0002988137664268</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.000613741644674</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-1.06719202295303</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangaehuehu at u/s Rangataua STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0065925198997071</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.772727272727273</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0299576951614881</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0106477939841827</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.049585228962885</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.38706734354487</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1812051</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5632525</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MangaehuehuatusRangatauaSTP_5913372711.xlsx
+++ b/trend_results/Rivers/MangaehuehuatusRangatauaSTP_5913372711.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.07907144286644401</v>
+        <v>0.044030056354781</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0384615384615385</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H2" t="n">
-        <v>0.923076923076923</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.045</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.21488318085855</v>
+        <v>-0.34160071942446</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.56448777526958</v>
+        <v>-0.77627042509036</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0550272466020983</v>
+        <v>-0.0211942324683021</v>
       </c>
       <c r="N2" t="n">
-        <v>-9.767417311752279</v>
+        <v>-16.7041916588978</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.041230749793399</v>
+        <v>0.002983552872579</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.915254237288136</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.69</v>
+        <v>10.64</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.06856799450549431</v>
+        <v>-0.103393516709009</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.161809183571113</v>
+        <v>-0.15862941452042</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0301030219780217</v>
+        <v>-0.0530186138611747</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.641421838217908</v>
+        <v>-0.97174357809219</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,35 +751,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.003607558136357</v>
+        <v>0.603350109473888</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.457627118644068</v>
+        <v>0.491525423728814</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0017107728337236</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000648181011535</v>
+        <v>-0.0013663523531503</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0029938671011974</v>
+        <v>0.0010234315372928</v>
       </c>
       <c r="N4" t="n">
-        <v>9.004067545913969</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,14 +842,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.808633455557387</v>
+        <v>0.767693614727601</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0338983050847458</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H5" t="n">
         <v>0.627118644067797</v>
@@ -858,19 +858,19 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K5" t="n">
-        <v>-3.00071524812767</v>
+        <v>-1.17188861857014</v>
       </c>
       <c r="L5" t="n">
-        <v>-13.6679695038035</v>
+        <v>-12.5405962026314</v>
       </c>
       <c r="M5" t="n">
-        <v>2.12706172246732</v>
+        <v>2.54561099908945</v>
       </c>
       <c r="N5" t="n">
-        <v>-6.25149010026598</v>
+        <v>-2.66338322402305</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -938,13 +938,13 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.96078431372549</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07843137254901961</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.747111911472174</v>
+        <v>0.9984641745834</v>
       </c>
       <c r="G7" t="n">
-        <v>0.677966101694915</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="H7" t="n">
         <v>0.0847457627118644</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.999999999606788</v>
+        <v>0.99999817885554</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.932203389830508</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.142</v>
+        <v>0.133</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0326116071428571</v>
+        <v>-0.0210353403141361</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0405833333333333</v>
+        <v>-0.0293355576228319</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0238935710750511</v>
+        <v>-0.0141107172019502</v>
       </c>
       <c r="N8" t="n">
-        <v>-22.9659205231388</v>
+        <v>-15.8160453489745</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6.56898818007789e-07</v>
+        <v>1.54781128479664e-05</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.810344827586207</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.285</v>
+        <v>6.93</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.260892857142852</v>
+        <v>-0.215310724431818</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.340021302323459</v>
+        <v>-0.30538928056067</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.170095742342578</v>
+        <v>-0.146194854840548</v>
       </c>
       <c r="N9" t="n">
-        <v>-3.58123345426015</v>
+        <v>-3.106936860488</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.999999999399396</v>
+        <v>0.999998351017007</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.728813559322034</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.154</v>
+        <v>0.141</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.03316685584563</v>
+        <v>-0.0213683673469388</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0413546654902285</v>
+        <v>-0.0289623467039759</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0240119570869051</v>
+        <v>-0.0145486221626214</v>
       </c>
       <c r="N10" t="n">
-        <v>-21.5369193802792</v>
+        <v>-15.1548704588218</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1372,35 +1372,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.098091909330816</v>
+        <v>0.9999961692735509</v>
       </c>
       <c r="G11" t="n">
-        <v>0.169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.23728813559322</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0.17</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.0224692412850308</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-0.0305319506383443</v>
       </c>
       <c r="M11" t="n">
-        <v>0.427693208430913</v>
+        <v>-0.0142399037205513</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>-13.2172007559004</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1452,14 +1452,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1467,31 +1467,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.999999999769204</v>
+        <v>0.232306385272399</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.457627118644068</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.17</v>
+        <v>0.029</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0401373626373626</v>
+        <v>0.000334478021978</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0479833829462657</v>
+        <v>-0.0005421995320123</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0319460641399417</v>
+        <v>0.0021246605529</v>
       </c>
       <c r="N12" t="n">
-        <v>-23.6102133160956</v>
+        <v>1.15337248957939</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.5065817601446e-05</v>
+        <v>0.134492752533068</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.508474576271186</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.028</v>
+        <v>1.38</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0033234758871701</v>
+        <v>0.0538350340136055</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0021187200244539</v>
+        <v>-0.0241316638469797</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0047435064935064</v>
+        <v>0.14709212991198</v>
       </c>
       <c r="N13" t="n">
-        <v>11.8695567398934</v>
+        <v>3.90108942127576</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.137322241886445</v>
+        <v>0.0054864765467169</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="H14" t="n">
-        <v>0.813559322033898</v>
+        <v>0.8356164383561639</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.38</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0501717032967033</v>
+        <v>-0.149387127801941</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0253406762361911</v>
+        <v>-0.254782322966086</v>
       </c>
       <c r="M14" t="n">
-        <v>0.178159481032186</v>
+        <v>-0.0541870351002402</v>
       </c>
       <c r="N14" t="n">
-        <v>3.63563067367416</v>
+        <v>-5.97548511207762</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.032290675838492</v>
+        <v>0.468752448633105</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0119047619047619</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.75</v>
+        <v>0.840336134453782</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>10.61</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0650148334094021</v>
+        <v>-0.0012512846865364</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.132939035486806</v>
+        <v>-0.0481123185378135</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0096308297295148</v>
+        <v>0.0250506825799231</v>
       </c>
       <c r="N15" t="n">
-        <v>-2.60059333637609</v>
+        <v>-0.0117934466214558</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1816,46 +1816,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.468752448633105</v>
+        <v>0.647030126967896</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.823529411764706</v>
+        <v>0.294117647058824</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.64</v>
+        <v>0.019</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0049931647300067</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0501672913155152</v>
+        <v>-0.0005733622896437</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0239872087851666</v>
+        <v>0.0003115096329405</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0469282399436723</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1907,46 +1907,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.312898206872485</v>
+        <v>0.0001859856328076</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H17" t="n">
-        <v>0.294117647058824</v>
+        <v>0.403361344537815</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.019</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.89262869326835</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.000332347588717</v>
+        <v>1.66476180897588</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0005659758477635001</v>
+        <v>4.69586033028773</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>9.64209564422784</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1998,47 +1998,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0038815866099095</v>
-      </c>
+          <t>&lt; 5 Non-censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>0.0504201680672269</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="H18" t="n">
-        <v>0.420168067226891</v>
+        <v>0.045045045045045</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>25</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.00686813186813</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.8241481420237819</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4.2633086592571</v>
-      </c>
-      <c r="N18" t="n">
-        <v>8.027472527472529</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2046,7 +2034,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Not Analysed improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2065,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2077,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2100,24 +2088,36 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>&lt; 5 Non-censored values</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.999984464402614</v>
+      </c>
       <c r="G19" t="n">
-        <v>0.972972972972973</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="H19" t="n">
-        <v>0.045045045045045</v>
+        <v>0.109243697478992</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
       <c r="O19" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Not Analysed improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2179,35 +2179,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.999782871039951</v>
+        <v>0.999984851109138</v>
       </c>
       <c r="G20" t="n">
-        <v>0.436974789915966</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.109243697478992</v>
+        <v>0.840336134453782</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001</v>
+        <v>0.154</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.0091726018937834</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.61459036774238e-05</v>
+        <v>-0.0130050417162142</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-0.0056260002164214</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-5.95623499596328</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2274,31 +2274,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.809240698261759</v>
+        <v>1.67446800869442e-09</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.890756302521008</v>
+        <v>0.720338983050847</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.153</v>
+        <v>7.345</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.002431047077922</v>
+        <v>-0.0850502392344497</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0071152597402597</v>
+        <v>-0.108930560722907</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0021524854915824</v>
+        <v>-0.063453803876332</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.5889196587726</v>
+        <v>-1.1579338221164</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2336,11 +2336,7 @@
           <t>Whau_1c</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2350,7 +2346,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2365,31 +2361,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.2119333556977e-05</v>
+        <v>0.999985228221637</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.652542372881356</v>
+        <v>0.630252100840336</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.395</v>
+        <v>0.165</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0439398496240602</v>
+        <v>-0.0095740498034076</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.06783280792165</v>
+        <v>-0.013472063038406</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0240292937922692</v>
+        <v>-0.0058216164761292</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.594183226829752</v>
+        <v>-5.80245442630764</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2398,7 +2394,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2427,7 +2423,11 @@
           <t>Whau_1c</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2452,31 +2452,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.809946388123141</v>
+        <v>0.999999999870989</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.605042016806723</v>
+        <v>0.394957983193277</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.165</v>
+        <v>0.202</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0022810304449648</v>
+        <v>-0.0144538979026514</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0073131297452352</v>
+        <v>-0.0180465186636062</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0019107472330896</v>
+        <v>-0.0111312681192493</v>
       </c>
       <c r="N23" t="n">
-        <v>-1.3824426939181</v>
+        <v>-7.15539500131255</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2539,35 +2539,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.7000222825392149</v>
+        <v>0.216539538225965</v>
       </c>
       <c r="G24" t="n">
-        <v>0.184873949579832</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.184873949579832</v>
+        <v>0.319327731092437</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>0.028</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0002404542462146</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-0.0002583246937097</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0007998212274877</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.858765165052194</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2619,14 +2619,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2634,31 +2634,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.999993144208875</v>
+        <v>0.0048350725192481</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.46218487394958</v>
+        <v>0.789915966386555</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.21</v>
+        <v>1.34</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0106923302107728</v>
+        <v>0.060206043956044</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0144008002529389</v>
+        <v>0.0325303619183158</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0068704917162489</v>
+        <v>0.09183681529017799</v>
       </c>
       <c r="N25" t="n">
-        <v>-5.09158581465373</v>
+        <v>4.49298835492866</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2710,11 +2710,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2725,31 +2725,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.191163409959899</v>
+        <v>0.058696251444932</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0078125</v>
       </c>
       <c r="H26" t="n">
-        <v>0.319327731092437</v>
+        <v>0.65625</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.028</v>
+        <v>2.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0002508585164835</v>
+        <v>-0.0540183564105978</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0002407142994387</v>
+        <v>-0.101088865212151</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0008011737978305</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.895923273155417</v>
+        <v>-2.16073425642391</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2801,11 +2801,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2816,31 +2816,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0581967915044777</v>
+        <v>0.001016345486307</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8151260504201679</v>
+        <v>0.798850574712644</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.34</v>
+        <v>10.71</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0501717032967032</v>
+        <v>-0.0421869300911855</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>-0.0613229592877696</v>
       </c>
       <c r="M27" t="n">
-        <v>0.08523379275855569</v>
+        <v>-0.0200461411111241</v>
       </c>
       <c r="N27" t="n">
-        <v>3.74415696244054</v>
+        <v>-0.393902241747764</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2892,14 +2892,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2907,31 +2907,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.112149027357968</v>
+        <v>0.837638176633251</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0144927536231884</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.623188405797101</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.5</v>
+        <v>0.019</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0361236263736263</v>
+        <v>-0.0001427596965127</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0802747252747253</v>
+        <v>-0.0003753434101475</v>
       </c>
       <c r="M28" t="n">
-        <v>0.009078873578984599</v>
+        <v>7.306814580572029e-05</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.44494505494505</v>
+        <v>-0.751366823751497</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -2994,35 +2994,35 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.33972717100139e-05</v>
+        <v>0.0319023164296718</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0395480225988701</v>
       </c>
       <c r="H29" t="n">
-        <v>0.797687861271676</v>
+        <v>0.446327683615819</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>10.74</v>
+        <v>25</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0566795983569149</v>
+        <v>0.8568923143957931</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0813019094559376</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0386029914429026</v>
+        <v>1.66163381341359</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.527743001461033</v>
+        <v>3.42756925758317</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3074,43 +3074,43 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.633222942137401</v>
+        <v>0.51476301928921</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.970238095238095</v>
       </c>
       <c r="H30" t="n">
-        <v>0.227272727272727</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>0.019</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0003171947964543</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0001999178981937</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3165,46 +3165,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.224835525816641</v>
+        <v>0.948478075911958</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0397727272727273</v>
+        <v>0.574850299401198</v>
       </c>
       <c r="H31" t="n">
-        <v>0.460227272727273</v>
+        <v>0.0778443113772455</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>25</v>
+        <v>0.001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.166609701789976</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.249111677798186</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.25044262072733</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.666438807159904</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3267,35 +3267,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.569010430861678</v>
+        <v>0.0005861900003144</v>
       </c>
       <c r="G32" t="n">
-        <v>0.964071856287425</v>
+        <v>0.0119760479041916</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0538922155688623</v>
+        <v>0.802395209580838</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.132</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0048670768307322</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.0024684815810285</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0070778116163132</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.68717941722143</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3358,35 +3358,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.714794446919315</v>
+        <v>1.86592574780153e-05</v>
       </c>
       <c r="G33" t="n">
-        <v>0.541935483870968</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0838709677419355</v>
+        <v>0.617142857142857</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.001</v>
+        <v>7.35</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-0.0370812182741118</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0524437910030593</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>-0.0217410714285711</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>-0.504506371076351</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3424,11 +3424,7 @@
           <t>Whau_1c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3438,7 +3434,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3453,31 +3449,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6.86496298107367e-05</v>
+        <v>6.2888009864606e-06</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0127388535031847</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8216560509554141</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.132</v>
+        <v>0.135</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0064158312373575</v>
+        <v>0.0057821512820026</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0037546200397626</v>
+        <v>0.0037597352899606</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0089611483164104</v>
+        <v>0.0078483252347067</v>
       </c>
       <c r="N34" t="n">
-        <v>4.86047821011933</v>
+        <v>4.28307502370563</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3517,7 +3513,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3525,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3544,31 +3540,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.061786118253407</v>
+        <v>0.0153124299771434</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H35" t="n">
-        <v>0.580459770114943</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>7.38</v>
+        <v>0.18</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0126509153884215</v>
+        <v>0.003362747473349</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0260892857142859</v>
+        <v>0.0003849120159309</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0058615468454241</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.171421617729288</v>
+        <v>1.86819304074946</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3577,7 +3573,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3606,7 +3602,11 @@
           <t>Whau_1c</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3616,14 +3616,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3631,31 +3631,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.09326438921435e-07</v>
+        <v>0.755053799312455</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.585227272727273</v>
+        <v>0.265536723163842</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1325</v>
+        <v>0.028</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0068592320064941</v>
+        <v>-0.0001052670667215</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0047866210636693</v>
+        <v>-0.000497270779298</v>
       </c>
       <c r="M36" t="n">
-        <v>0.008851177544587399</v>
+        <v>0.0001251229114887</v>
       </c>
       <c r="N36" t="n">
-        <v>5.17677887282577</v>
+        <v>-0.375953809719659</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3707,14 +3707,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3722,31 +3722,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.0002498735138345</v>
+        <v>0.0038639600203868</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0170454545454545</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.335227272727273</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.18</v>
+        <v>1.3</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0054746443586398</v>
+        <v>0.0319299380286311</v>
       </c>
       <c r="L37" t="n">
-        <v>0.002959955913044</v>
+        <v>0.0131207195920267</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0080274725274725</v>
+        <v>0.0501717032967033</v>
       </c>
       <c r="N37" t="n">
-        <v>3.04146908813326</v>
+        <v>2.45614907912547</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3785,188 +3785,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Mangaehuehu at u/s Rangataua STP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.938335781998732</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.272727272727273</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-0.0002988137664268</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-0.000613741644674</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-1.06719202295303</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Very likely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1812051</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5632525</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Upper Whangaehu</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Whau_1c</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Mangaehuehu at u/s Rangataua STP</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.0065925198997071</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.772727272727273</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.255</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.0299576951614881</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.0106477939841827</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.049585228962885</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2.38706734354487</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1812051</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5632525</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Upper Whangaehu</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Whau_1c</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MangaehuehuatusRangatauaSTP_5913372711.xlsx
+++ b/trend_results/Rivers/MangaehuehuatusRangatauaSTP_5913372711.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -88,96 +88,93 @@
     <t>Mangaehuehu at u/s Rangataua STP</t>
   </si>
   <si>
+    <t>Dissolved Oxygen Concentration</t>
+  </si>
+  <si>
+    <t>Dissolved Reactive Phosphorus</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>Ammoniacal Nitrogen (NH4)</t>
+  </si>
+  <si>
+    <t>Nitrite Nitrogen (NO2)</t>
+  </si>
+  <si>
+    <t>Nitrate Nitrogen (NO3)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>SIN (Soluble Inorganic nitrogen)</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
     <t>Visual Clarity</t>
   </si>
   <si>
-    <t>Dissolved Oxygen Concentration</t>
-  </si>
-  <si>
-    <t>Dissolved Reactive Phosphorus</t>
-  </si>
-  <si>
-    <t>E. coli</t>
-  </si>
-  <si>
-    <t>Ammoniacal Nitrogen (NH4)</t>
-  </si>
-  <si>
-    <t>Nitrite Nitrogen (NO2)</t>
-  </si>
-  <si>
-    <t>Nitrate Nitrogen (NO3)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>SIN (Soluble Inorganic nitrogen)</t>
-  </si>
-  <si>
-    <t>Total Nitrogen</t>
-  </si>
-  <si>
-    <t>Total Phosphorus</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
+    <t>&lt; 5 Non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>&lt; 3 unique values</t>
-  </si>
-  <si>
-    <t>&lt; 5 Non-censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
     <t>Ruapehu District</t>
   </si>
   <si>
@@ -190,19 +187,19 @@
     <t>Whau_1c</t>
   </si>
   <si>
+    <t>g/m3</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>NTU/FNU</t>
+  </si>
+  <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>g/m3</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>E. coli/100 mL</t>
-  </si>
-  <si>
-    <t>NTU/FNU</t>
   </si>
 </sst>
 </file>
@@ -560,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,44 +645,44 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.044030056354781</v>
+        <v>0.096383983600694</v>
       </c>
       <c r="G2">
-        <v>0.0555555555555556</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.944444444444444</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.045</v>
+        <v>10.59</v>
       </c>
       <c r="K2">
-        <v>-0.34160071942446</v>
+        <v>-0.06837381376209301</v>
       </c>
       <c r="L2">
-        <v>-0.77627042509036</v>
+        <v>-0.115641998402469</v>
       </c>
       <c r="M2">
-        <v>-0.0211942324683021</v>
+        <v>0.0053362947048817</v>
       </c>
       <c r="N2">
-        <v>-16.7041916588978</v>
+        <v>-0.645645078017875</v>
       </c>
       <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
         <v>42</v>
       </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
       <c r="Q2">
         <v>1812051</v>
       </c>
@@ -693,19 +690,19 @@
         <v>5632525</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
         <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -719,43 +716,43 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>0.002983552872579</v>
+        <v>0.419516185333386</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.898305084745763</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.64</v>
+        <v>0.019</v>
       </c>
       <c r="K3">
-        <v>-0.103393516709009</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.15862941452042</v>
+        <v>-0.0009444560205404</v>
       </c>
       <c r="M3">
-        <v>-0.0530186138611747</v>
+        <v>0.0012727634805417</v>
       </c>
       <c r="N3">
-        <v>-0.97174357809219</v>
+        <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q3">
         <v>1812051</v>
@@ -764,19 +761,19 @@
         <v>5632525</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -790,43 +787,43 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>0.603350109473888</v>
+        <v>0.945230043802226</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="H4">
-        <v>0.491525423728814</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.02</v>
+        <v>39.2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-6.55154766350155</v>
       </c>
       <c r="L4">
-        <v>-0.0013663523531503</v>
+        <v>-16.9663788197595</v>
       </c>
       <c r="M4">
-        <v>0.0010234315372928</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-16.7131317946468</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q4">
         <v>1812051</v>
@@ -835,19 +832,19 @@
         <v>5632525</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -861,43 +858,25 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="F5">
-        <v>0.767693614727601</v>
-      </c>
       <c r="G5">
-        <v>0.0508474576271186</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="H5">
-        <v>0.627118644067797</v>
+        <v>0.0701754385964912</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>44</v>
-      </c>
-      <c r="K5">
-        <v>-1.17188861857014</v>
-      </c>
-      <c r="L5">
-        <v>-12.5405962026314</v>
-      </c>
-      <c r="M5">
-        <v>2.54561099908945</v>
-      </c>
-      <c r="N5">
-        <v>-2.66338322402305</v>
-      </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q5">
         <v>1812051</v>
@@ -906,19 +885,19 @@
         <v>5632525</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -937,20 +916,38 @@
       <c r="E6" t="s">
         <v>39</v>
       </c>
+      <c r="F6">
+        <v>0.997766443009284</v>
+      </c>
       <c r="G6">
-        <v>0.962962962962963</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="H6">
-        <v>0.0555555555555556</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <v>0.001</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q6">
         <v>1812051</v>
@@ -959,19 +956,19 @@
         <v>5632525</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -988,40 +985,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>0.9984641745834</v>
+        <v>0.999324445907422</v>
       </c>
       <c r="G7">
-        <v>0.728813559322034</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0847457627118644</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.001</v>
+        <v>0.122</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.0129856173238526</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-0.0188953924535249</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-0.0065679619708215</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-10.6439486261087</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q7">
         <v>1812051</v>
@@ -1030,19 +1027,19 @@
         <v>5632525</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1062,37 +1059,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.99999817885554</v>
+        <v>0.0075805146496019</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.88135593220339</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.133</v>
+        <v>6.755</v>
       </c>
       <c r="K8">
-        <v>-0.0210353403141361</v>
+        <v>-0.125948275862069</v>
       </c>
       <c r="L8">
-        <v>-0.0293355576228319</v>
+        <v>-0.206540178571428</v>
       </c>
       <c r="M8">
-        <v>-0.0141107172019502</v>
+        <v>-0.0439837092426948</v>
       </c>
       <c r="N8">
-        <v>-15.8160453489745</v>
+        <v>-1.86451925776564</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q8">
         <v>1812051</v>
@@ -1101,19 +1098,16 @@
         <v>5632525</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
-      </c>
-      <c r="W8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1133,37 +1127,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>1.54781128479664E-05</v>
+        <v>0.999054552372283</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.879310344827586</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.93</v>
+        <v>0.128</v>
       </c>
       <c r="K9">
-        <v>-0.215310724431818</v>
+        <v>-0.0124425824175824</v>
       </c>
       <c r="L9">
-        <v>-0.30538928056067</v>
+        <v>-0.018070992619133</v>
       </c>
       <c r="M9">
-        <v>-0.146194854840548</v>
+        <v>-0.0064358270750142</v>
       </c>
       <c r="N9">
-        <v>-3.106936860488</v>
+        <v>-9.72076751373627</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1812051</v>
@@ -1172,15 +1166,18 @@
         <v>5632525</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1201,37 +1198,37 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.999998351017007</v>
+        <v>0.99708380681339</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.796610169491525</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.141</v>
+        <v>0.15</v>
       </c>
       <c r="K10">
-        <v>-0.0213683673469388</v>
+        <v>-0.0105767374517375</v>
       </c>
       <c r="L10">
-        <v>-0.0289623467039759</v>
+        <v>-0.017201726844584</v>
       </c>
       <c r="M10">
-        <v>-0.0145486221626214</v>
+        <v>-0.0046264195748895</v>
       </c>
       <c r="N10">
-        <v>-15.1548704588218</v>
+        <v>-7.0511583011583</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q10">
         <v>1812051</v>
@@ -1240,19 +1237,19 @@
         <v>5632525</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" t="s">
         <v>57</v>
-      </c>
-      <c r="W10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1266,43 +1263,43 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.9999961692735509</v>
+        <v>0.668739708229971</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.372881355932203</v>
+        <v>0.525423728813559</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.17</v>
+        <v>0.028</v>
       </c>
       <c r="K11">
-        <v>-0.0224692412850308</v>
+        <v>-0.0004160469128963</v>
       </c>
       <c r="L11">
-        <v>-0.0305319506383443</v>
+        <v>-0.0016650028259419</v>
       </c>
       <c r="M11">
-        <v>-0.0142399037205513</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N11">
-        <v>-13.2172007559004</v>
+        <v>-1.48588183177274</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q11">
         <v>1812051</v>
@@ -1311,19 +1308,19 @@
         <v>5632525</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" t="s">
         <v>57</v>
-      </c>
-      <c r="W11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1337,43 +1334,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.232306385272399</v>
+        <v>0.476528800755481</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.508474576271186</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.029</v>
+        <v>1.36</v>
       </c>
       <c r="K12">
-        <v>0.000334478021978</v>
+        <v>0.0036745472837022</v>
       </c>
       <c r="L12">
-        <v>-0.0005421995320123</v>
+        <v>-0.06977830360976579</v>
       </c>
       <c r="M12">
-        <v>0.0021246605529</v>
+        <v>0.122518169993454</v>
       </c>
       <c r="N12">
-        <v>1.15337248957939</v>
+        <v>0.270187300272222</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q12">
         <v>1812051</v>
@@ -1382,19 +1379,19 @@
         <v>5632525</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1405,7 +1402,7 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1414,37 +1411,37 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.134492752533068</v>
+        <v>0.000186025233997</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="H13">
-        <v>0.864406779661017</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1.38</v>
+        <v>2.45</v>
       </c>
       <c r="K13">
-        <v>0.0538350340136055</v>
+        <v>-0.259733333333333</v>
       </c>
       <c r="L13">
-        <v>-0.0241316638469797</v>
+        <v>-0.351638606566662</v>
       </c>
       <c r="M13">
-        <v>0.14709212991198</v>
+        <v>-0.145811750026976</v>
       </c>
       <c r="N13">
-        <v>3.90108942127576</v>
+        <v>-10.6013605442177</v>
       </c>
       <c r="O13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>1812051</v>
@@ -1453,19 +1450,19 @@
         <v>5632525</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1479,43 +1476,43 @@
         <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.0054864765467169</v>
+        <v>0.224247300426228</v>
       </c>
       <c r="G14">
-        <v>0.0136986301369863</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.8356164383561639</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>2.5</v>
+        <v>10.62</v>
       </c>
       <c r="K14">
-        <v>-0.149387127801941</v>
+        <v>-0.0232643312101912</v>
       </c>
       <c r="L14">
-        <v>-0.254782322966086</v>
+        <v>-0.050171703296704</v>
       </c>
       <c r="M14">
-        <v>-0.0541870351002402</v>
+        <v>0.0102247772482166</v>
       </c>
       <c r="N14">
-        <v>-5.97548511207762</v>
+        <v>-0.219061499154343</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1812051</v>
@@ -1524,19 +1521,19 @@
         <v>5632525</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" t="s">
         <v>57</v>
-      </c>
-      <c r="W14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1556,37 +1553,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.468752448633105</v>
+        <v>0.736192803429612</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.840336134453782</v>
+        <v>0.260504201680672</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.61</v>
+        <v>0.018</v>
       </c>
       <c r="K15">
-        <v>-0.0012512846865364</v>
+        <v>-0.0001248291182501</v>
       </c>
       <c r="L15">
-        <v>-0.0481123185378135</v>
+        <v>-0.0005676145402435</v>
       </c>
       <c r="M15">
-        <v>0.0250506825799231</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="N15">
-        <v>-0.0117934466214558</v>
+        <v>-0.6934951013898381</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15">
         <v>1812051</v>
@@ -1595,19 +1592,19 @@
         <v>5632525</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1621,43 +1618,43 @@
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>0.647030126967896</v>
+        <v>0.0346852559664433</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0756302521008403</v>
       </c>
       <c r="H16">
-        <v>0.294117647058824</v>
+        <v>0.470588235294118</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0.019</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.49794941900205</v>
       </c>
       <c r="L16">
-        <v>-0.0005733622896437</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0003115096329405</v>
+        <v>2.68156533394825</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.99316473000684</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q16">
         <v>1812051</v>
@@ -1666,19 +1663,19 @@
         <v>5632525</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1692,43 +1689,25 @@
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17">
-        <v>0.0001859856328076</v>
+        <v>38</v>
       </c>
       <c r="G17">
-        <v>0.0588235294117647</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="H17">
-        <v>0.403361344537815</v>
+        <v>0.045045045045045</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>30</v>
-      </c>
-      <c r="K17">
-        <v>2.89262869326835</v>
-      </c>
-      <c r="L17">
-        <v>1.66476180897588</v>
-      </c>
-      <c r="M17">
-        <v>4.69586033028773</v>
-      </c>
-      <c r="N17">
-        <v>9.64209564422784</v>
+        <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q17">
         <v>1812051</v>
@@ -1737,19 +1716,19 @@
         <v>5632525</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,22 +1745,40 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>0.999999201940183</v>
       </c>
       <c r="G18">
-        <v>0.972972972972973</v>
+        <v>0.621848739495798</v>
       </c>
       <c r="H18">
-        <v>0.045045045045045</v>
+        <v>0.109243697478992</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.001</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q18">
         <v>1812051</v>
@@ -1790,19 +1787,19 @@
         <v>5632525</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1819,40 +1816,40 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19">
-        <v>0.999984464402614</v>
+        <v>0.999999999999973</v>
       </c>
       <c r="G19">
-        <v>0.529411764705882</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.109243697478992</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.001</v>
+        <v>0.1492</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.0151792207792208</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-0.0182266129387572</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-0.0121222943722944</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-10.1737404686466</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q19">
         <v>1812051</v>
@@ -1861,19 +1858,19 @@
         <v>5632525</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1893,37 +1890,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.999984851109138</v>
+        <v>1.03295150211125E-12</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.840336134453782</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.154</v>
+        <v>7.265</v>
       </c>
       <c r="K20">
-        <v>-0.0091726018937834</v>
+        <v>-0.105452755905512</v>
       </c>
       <c r="L20">
-        <v>-0.0130050417162142</v>
+        <v>-0.131165344358658</v>
       </c>
       <c r="M20">
-        <v>-0.0056260002164214</v>
+        <v>-0.08084004024144879</v>
       </c>
       <c r="N20">
-        <v>-5.95623499596328</v>
+        <v>-1.45151763118392</v>
       </c>
       <c r="O20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q20">
         <v>1812051</v>
@@ -1932,19 +1929,16 @@
         <v>5632525</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>57</v>
-      </c>
-      <c r="W20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1964,37 +1958,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>1.67446800869442E-09</v>
+        <v>0.999999999999978</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.720338983050847</v>
+        <v>0.621848739495798</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.345</v>
+        <v>0.159</v>
       </c>
       <c r="K21">
-        <v>-0.0850502392344497</v>
+        <v>-0.01523798988622</v>
       </c>
       <c r="L21">
-        <v>-0.108930560722907</v>
+        <v>-0.0182852527979057</v>
       </c>
       <c r="M21">
-        <v>-0.063453803876332</v>
+        <v>-0.0124683138135518</v>
       </c>
       <c r="N21">
-        <v>-1.1579338221164</v>
+        <v>-9.583641437874199</v>
       </c>
       <c r="O21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q21">
         <v>1812051</v>
@@ -2003,15 +1997,18 @@
         <v>5632525</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2032,37 +2029,37 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.999985228221637</v>
+        <v>0.999999999999997</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.630252100840336</v>
+        <v>0.319327731092437</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.165</v>
+        <v>0.19</v>
       </c>
       <c r="K22">
-        <v>-0.0095740498034076</v>
+        <v>-0.0173928571428572</v>
       </c>
       <c r="L22">
-        <v>-0.013472063038406</v>
+        <v>-0.0206960187853712</v>
       </c>
       <c r="M22">
-        <v>-0.0058216164761292</v>
+        <v>-0.0142954990215264</v>
       </c>
       <c r="N22">
-        <v>-5.80245442630764</v>
+        <v>-9.154135338345871</v>
       </c>
       <c r="O22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q22">
         <v>1812051</v>
@@ -2071,19 +2068,19 @@
         <v>5632525</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" t="s">
         <v>57</v>
-      </c>
-      <c r="W22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2097,43 +2094,43 @@
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.999999999870989</v>
+        <v>0.011869365118994</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.394957983193277</v>
+        <v>0.310924369747899</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.202</v>
+        <v>0.025</v>
       </c>
       <c r="K23">
-        <v>-0.0144538979026514</v>
+        <v>0.0004976158038147</v>
       </c>
       <c r="L23">
-        <v>-0.0180465186636062</v>
+        <v>0.0001479196923978</v>
       </c>
       <c r="M23">
-        <v>-0.0111312681192493</v>
+        <v>0.0009970427661509999</v>
       </c>
       <c r="N23">
-        <v>-7.15539500131255</v>
+        <v>1.99046321525886</v>
       </c>
       <c r="O23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q23">
         <v>1812051</v>
@@ -2142,19 +2139,19 @@
         <v>5632525</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" t="s">
         <v>57</v>
-      </c>
-      <c r="W23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2168,43 +2165,43 @@
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.216539538225965</v>
+        <v>0.0038505298693395</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.319327731092437</v>
+        <v>0.773109243697479</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.028</v>
+        <v>1.32</v>
       </c>
       <c r="K24">
-        <v>0.0002404542462146</v>
+        <v>0.0550125513464172</v>
       </c>
       <c r="L24">
-        <v>-0.0002583246937097</v>
+        <v>0.025110448263993</v>
       </c>
       <c r="M24">
-        <v>0.0007998212274877</v>
+        <v>0.09861177877713551</v>
       </c>
       <c r="N24">
-        <v>0.858765165052194</v>
+        <v>4.16761752624373</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q24">
         <v>1812051</v>
@@ -2213,19 +2210,19 @@
         <v>5632525</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2236,46 +2233,46 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.0048350725192481</v>
+        <v>0.078015791045317</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H25">
-        <v>0.789915966386555</v>
+        <v>0.658119658119658</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1.34</v>
+        <v>2.5</v>
       </c>
       <c r="K25">
-        <v>0.060206043956044</v>
+        <v>-0.0497636723228618</v>
       </c>
       <c r="L25">
-        <v>0.0325303619183158</v>
+        <v>-0.0976018858346514</v>
       </c>
       <c r="M25">
-        <v>0.09183681529017799</v>
+        <v>0.0042789209569388</v>
       </c>
       <c r="N25">
-        <v>4.49298835492866</v>
+        <v>-1.99054689291447</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q25">
         <v>1812051</v>
@@ -2284,19 +2281,19 @@
         <v>5632525</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2310,43 +2307,43 @@
         <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.058696251444932</v>
+        <v>0.0019749319466489</v>
       </c>
       <c r="G26">
-        <v>0.0078125</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.65625</v>
+        <v>0.7909604519774009</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>2.5</v>
+        <v>10.69</v>
       </c>
       <c r="K26">
-        <v>-0.0540183564105978</v>
+        <v>-0.0373020581925449</v>
       </c>
       <c r="L26">
-        <v>-0.101088865212151</v>
+        <v>-0.0530270355898235</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-0.0149791031362429</v>
       </c>
       <c r="N26">
-        <v>-2.16073425642391</v>
+        <v>-0.348943481688914</v>
       </c>
       <c r="O26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q26">
         <v>1812051</v>
@@ -2355,19 +2352,19 @@
         <v>5632525</v>
       </c>
       <c r="S26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V26" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" t="s">
         <v>57</v>
-      </c>
-      <c r="W26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2387,37 +2384,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.001016345486307</v>
+        <v>0.822881917153065</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.798850574712644</v>
+        <v>0.209039548022599</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.71</v>
+        <v>0.019</v>
       </c>
       <c r="K27">
-        <v>-0.0421869300911855</v>
+        <v>-0.0001248077945196</v>
       </c>
       <c r="L27">
-        <v>-0.0613229592877696</v>
+        <v>-0.0003730039458978</v>
       </c>
       <c r="M27">
-        <v>-0.0200461411111241</v>
+        <v>7.149962495941021E-05</v>
       </c>
       <c r="N27">
-        <v>-0.393902241747764</v>
+        <v>-0.656883129050986</v>
       </c>
       <c r="O27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q27">
         <v>1812051</v>
@@ -2426,19 +2423,19 @@
         <v>5632525</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2458,37 +2455,37 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>0.837638176633251</v>
+        <v>0.0318783864167947</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H28">
-        <v>0.220338983050847</v>
+        <v>0.480225988700565</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0.019</v>
+        <v>25</v>
       </c>
       <c r="K28">
-        <v>-0.0001427596965127</v>
+        <v>0.8016475989763659</v>
       </c>
       <c r="L28">
-        <v>-0.0003753434101475</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>7.306814580572029E-05</v>
+        <v>1.50488746762186</v>
       </c>
       <c r="N28">
-        <v>-0.751366823751497</v>
+        <v>3.20659039590546</v>
       </c>
       <c r="O28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q28">
         <v>1812051</v>
@@ -2497,19 +2494,19 @@
         <v>5632525</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2523,40 +2520,40 @@
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F29">
-        <v>0.0319023164296718</v>
+        <v>0.449883726915459</v>
       </c>
       <c r="G29">
-        <v>0.0395480225988701</v>
+        <v>0.9644970414201181</v>
       </c>
       <c r="H29">
-        <v>0.446327683615819</v>
+        <v>0.0532544378698225</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>25</v>
+        <v>0.005</v>
       </c>
       <c r="K29">
-        <v>0.8568923143957931</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1.66163381341359</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>3.42756925758317</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P29" t="s">
         <v>43</v>
@@ -2568,19 +2565,19 @@
         <v>5632525</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2597,22 +2594,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30">
-        <v>0.51476301928921</v>
+        <v>0.992767998839806</v>
       </c>
       <c r="G30">
-        <v>0.970238095238095</v>
+        <v>0.593220338983051</v>
       </c>
       <c r="H30">
-        <v>0.0476190476190476</v>
+        <v>0.07344632768361579</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2627,10 +2624,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q30">
         <v>1812051</v>
@@ -2639,19 +2636,19 @@
         <v>5632525</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2668,40 +2665,40 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F31">
-        <v>0.948478075911958</v>
+        <v>0.0408702558335272</v>
       </c>
       <c r="G31">
-        <v>0.574850299401198</v>
+        <v>0.0112994350282486</v>
       </c>
       <c r="H31">
-        <v>0.0778443113772455</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>0.001</v>
+        <v>0.128</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>0.0023031637312459</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>0.0001029553463717</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>0.0044835678050898</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1.79934666503588</v>
       </c>
       <c r="O31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q31">
         <v>1812051</v>
@@ -2710,19 +2707,19 @@
         <v>5632525</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2739,40 +2736,40 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F32">
-        <v>0.0005861900003144</v>
+        <v>9.14046616173891E-13</v>
       </c>
       <c r="G32">
-        <v>0.0119760479041916</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0.802395209580838</v>
+        <v>0.630681818181818</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.132</v>
+        <v>7.345</v>
       </c>
       <c r="K32">
-        <v>0.0048670768307322</v>
+        <v>-0.0603192808278851</v>
       </c>
       <c r="L32">
-        <v>0.0024684815810285</v>
+        <v>-0.07416724508392469</v>
       </c>
       <c r="M32">
-        <v>0.0070778116163132</v>
+        <v>-0.0464833768365228</v>
       </c>
       <c r="N32">
-        <v>3.68717941722143</v>
+        <v>-0.821229146737714</v>
       </c>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q32">
         <v>1812051</v>
@@ -2781,19 +2778,16 @@
         <v>5632525</v>
       </c>
       <c r="S32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>57</v>
-      </c>
-      <c r="W32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2813,37 +2807,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>1.86592574780153E-05</v>
+        <v>0.0531311121724897</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.617142857142857</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.35</v>
+        <v>0.1354</v>
       </c>
       <c r="K33">
-        <v>-0.0370812182741118</v>
+        <v>0.0020883754677659</v>
       </c>
       <c r="L33">
-        <v>-0.0524437910030593</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>-0.0217410714285711</v>
+        <v>0.004268669141015</v>
       </c>
       <c r="N33">
-        <v>-0.504506371076351</v>
+        <v>1.54237479155533</v>
       </c>
       <c r="O33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q33">
         <v>1812051</v>
@@ -2852,15 +2846,18 @@
         <v>5632525</v>
       </c>
       <c r="S33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
+        <v>56</v>
+      </c>
+      <c r="W33" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2881,34 +2878,34 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>6.2888009864606E-06</v>
+        <v>0.73012679938852</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H34">
-        <v>0.677966101694915</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0.135</v>
+        <v>0.18</v>
       </c>
       <c r="K34">
-        <v>0.0057821512820026</v>
+        <v>-0.0007298431484582</v>
       </c>
       <c r="L34">
-        <v>0.0037597352899606</v>
+        <v>-0.0035816559090946</v>
       </c>
       <c r="M34">
-        <v>0.0078483252347067</v>
+        <v>0.0014818800143865</v>
       </c>
       <c r="N34">
-        <v>4.28307502370563</v>
+        <v>-0.405468415810142</v>
       </c>
       <c r="O34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P34" t="s">
         <v>50</v>
@@ -2920,19 +2917,19 @@
         <v>5632525</v>
       </c>
       <c r="S34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V34" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" t="s">
         <v>57</v>
-      </c>
-      <c r="W34" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2946,40 +2943,40 @@
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35">
-        <v>0.0153124299771434</v>
+        <v>0.395702451505947</v>
       </c>
       <c r="G35">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0.333333333333333</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0.18</v>
+        <v>0.027</v>
       </c>
       <c r="K35">
-        <v>0.003362747473349</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0.0003849120159309</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="M35">
-        <v>0.0058615468454241</v>
+        <v>0.0002508535865043</v>
       </c>
       <c r="N35">
-        <v>1.86819304074946</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P35" t="s">
         <v>43</v>
@@ -2991,19 +2988,19 @@
         <v>5632525</v>
       </c>
       <c r="S35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
+        <v>56</v>
+      </c>
+      <c r="W35" t="s">
         <v>57</v>
-      </c>
-      <c r="W35" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3023,37 +3020,37 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.755053799312455</v>
+        <v>0.0035405778670202</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.265536723163842</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.028</v>
+        <v>1.32</v>
       </c>
       <c r="K36">
-        <v>-0.0001052670667215</v>
+        <v>0.0338020828950137</v>
       </c>
       <c r="L36">
-        <v>-0.000497270779298</v>
+        <v>0.0153277873621155</v>
       </c>
       <c r="M36">
-        <v>0.0001251229114887</v>
+        <v>0.0510683890577508</v>
       </c>
       <c r="N36">
-        <v>-0.375953809719659</v>
+        <v>2.56076385568285</v>
       </c>
       <c r="O36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q36">
         <v>1812051</v>
@@ -3062,90 +3059,19 @@
         <v>5632525</v>
       </c>
       <c r="S36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>15</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37">
-        <v>0.0038639600203868</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0.76271186440678</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>1.3</v>
-      </c>
-      <c r="K37">
-        <v>0.0319299380286311</v>
-      </c>
-      <c r="L37">
-        <v>0.0131207195920267</v>
-      </c>
-      <c r="M37">
-        <v>0.0501717032967033</v>
-      </c>
-      <c r="N37">
-        <v>2.45614907912547</v>
-      </c>
-      <c r="O37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P37" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q37">
-        <v>1812051</v>
-      </c>
-      <c r="R37">
-        <v>5632525</v>
-      </c>
-      <c r="S37" t="s">
-        <v>54</v>
-      </c>
-      <c r="T37" t="s">
-        <v>55</v>
-      </c>
-      <c r="U37" t="s">
-        <v>56</v>
-      </c>
-      <c r="V37" t="s">
-        <v>57</v>
-      </c>
-      <c r="W37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
